--- a/xlsx/尼尔·阿姆斯特朗_intext.xlsx
+++ b/xlsx/尼尔·阿姆斯特朗_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>尼尔·阿姆斯特朗</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国国家航空航天局</t>
   </si>
   <si>
-    <t>政策_政策_美國_尼尔·阿姆斯特朗</t>
+    <t>政策_政策_美国_尼尔·阿姆斯特朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%91%98</t>
@@ -143,61 +143,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>朝鮮戰爭</t>
+    <t>朝鲜战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%AB%AE%E8%A9%A2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>國家航空諮詢委員會</t>
+    <t>国家航空谘询委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-100%E8%B6%85%E7%B4%9A%E8%BB%8D%E5%88%80%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-100超級軍刀戰鬥機</t>
+    <t>F-100超级军刀战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-101%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-101戰鬥機</t>
+    <t>F-101战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-104%E6%98%9F%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-104星式戰鬥機</t>
+    <t>F-104星式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X-1%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-1試驗機</t>
+    <t>X-1试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X-5%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-5試驗機</t>
+    <t>X-5试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X-15%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-15試驗機</t>
+    <t>X-15试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-105%E9%9B%B7%E5%85%AC%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-105雷公戰鬥機</t>
+    <t>F-105雷公战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-47%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-47轟炸機</t>
+    <t>B-47轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3KC-135%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%9C%BA</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E7%B8%BE%E5%B9%B3%E5%9D%87%E7%A9%8D%E9%BB%9E</t>
   </si>
   <si>
-    <t>成績平均積點</t>
+    <t>成绩平均积点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%94%BF%E5%AD%A6</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%9C%A8%E5%8D%80</t>
   </si>
   <si>
-    <t>西木區</t>
+    <t>西木区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BF%E7%98%A4</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%B3%BD%E5%85%8B%E6%96%AF%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-9)</t>
   </si>
   <si>
-    <t>艾賽克斯號航空母艦 (CV-9)</t>
+    <t>艾赛克斯号航空母舰 (CV-9)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B0%89</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%B5%AB</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%BB%84%E5%AE%87%E8%88%AA%E5%91%98</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧本大學</t>
+    <t>奥本大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%B2%81%E5%9F%83%E5%B0%94%C2%B7%E6%89%98%E5%B0%94%E9%87%91</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%AF%94%E4%BA%BA%E6%AD%B7%E9%9A%AA%E8%A8%98</t>
   </si>
   <si>
-    <t>哈比人歷險記</t>
+    <t>哈比人历险记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96-144</t>
   </si>
   <si>
-    <t>圖-144</t>
+    <t>图-144</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%BF%AA%E8%88%AA%E5%A4%A9%E4%B8%AD%E5%BF%83</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E7%BA%B3%E6%8F%90%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>辛辛纳提大學</t>
+    <t>辛辛纳提大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%9713%E5%8F%B7</t>
@@ -641,19 +641,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>克萊斯勒</t>
+    <t>克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>克莱斯勒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>克萊斯勒汽車</t>
+    <t>克莱斯勒汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E6%9D%BE%E7%9F%B3%E6%B2%B9</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E7%B6%AD%E7%88%BE_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
   </si>
   <si>
-    <t>路易斯維爾 (肯塔基州)</t>
+    <t>路易斯维尔 (肯塔基州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%82%8C%E6%A2%97%E6%AD%BB</t>
@@ -719,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%85%E7%99%BB%E6%9C%88%E8%A8%88%E5%8A%83%E9%99%B0%E8%AC%80%E8%AB%96</t>
   </si>
   <si>
-    <t>阿波羅登月計劃陰謀論</t>
+    <t>阿波罗登月计划阴谋论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%AD%E6%A9%8B%E6%89%8B%E8%A1%93</t>
   </si>
   <si>
-    <t>搭橋手術</t>
+    <t>搭桥手术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8E%E5%9C%B0%E7%90%83%E5%88%B0%E6%9C%88%E7%90%83_(%E7%94%B5%E8%A7%86%E7%9F%AD%E5%89%A7)</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%8B%95%E6%88%B0%E5%A3%ABZ_%E9%8B%BC%E5%BD%88</t>
   </si>
   <si>
-    <t>機動戰士Z 鋼彈</t>
+    <t>机动战士Z 钢弹</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E5%B0%BC%E5%B0%94%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83%E5%A4%AA%E7%A9%BA%E6%A6%AE%E8%AD%BD%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>國會太空榮譽勳章</t>
+    <t>国会太空荣誉勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A0%BC%E4%BC%A6</t>
@@ -845,9 +842,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%C2%B7%E6%9F%A5%E8%8F%B2</t>
   </si>
   <si>
-    <t>羅傑·查菲</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/William_Shepherd</t>
   </si>
   <si>
@@ -923,13 +917,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E5%A1%9A%E6%89%BF%E6%AC%A1</t>
   </si>
   <si>
-    <t>鬼塚承次</t>
+    <t>鬼冢承次</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E9%AB%98%E5%88%A9%C2%B7%E8%B3%88%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>格里高利·賈維斯</t>
+    <t>格里高利·贾维斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Christa_McAuliffe</t>
@@ -947,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1001,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CiNii</t>
@@ -4455,7 +4449,7 @@
         <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4481,10 +4475,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4510,10 +4504,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4539,10 +4533,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4568,10 +4562,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4597,10 +4591,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4626,10 +4620,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4655,10 +4649,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4684,10 +4678,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4713,10 +4707,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4742,10 +4736,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4771,10 +4765,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4800,10 +4794,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4829,10 +4823,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4858,10 +4852,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4887,10 +4881,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4916,10 +4910,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>16</v>
@@ -4945,10 +4939,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>9</v>
@@ -5032,10 +5026,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5061,10 +5055,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5090,10 +5084,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5148,10 +5142,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5177,10 +5171,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5206,10 +5200,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5264,10 +5258,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5322,10 +5316,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5351,10 +5345,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5380,10 +5374,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>5</v>
@@ -5409,10 +5403,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>264</v>
+      </c>
+      <c r="F140" t="s">
         <v>265</v>
-      </c>
-      <c r="F140" t="s">
-        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5467,10 +5461,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>266</v>
+      </c>
+      <c r="F142" t="s">
         <v>267</v>
-      </c>
-      <c r="F142" t="s">
-        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5525,10 +5519,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>268</v>
+      </c>
+      <c r="F144" t="s">
         <v>269</v>
-      </c>
-      <c r="F144" t="s">
-        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -5554,10 +5548,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>260</v>
+      </c>
+      <c r="F145" t="s">
         <v>261</v>
-      </c>
-      <c r="F145" t="s">
-        <v>262</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5583,10 +5577,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>270</v>
+      </c>
+      <c r="F146" t="s">
         <v>271</v>
-      </c>
-      <c r="F146" t="s">
-        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5612,10 +5606,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>246</v>
+      </c>
+      <c r="F147" t="s">
         <v>247</v>
-      </c>
-      <c r="F147" t="s">
-        <v>248</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5641,10 +5635,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>252</v>
+      </c>
+      <c r="F148" t="s">
         <v>253</v>
-      </c>
-      <c r="F148" t="s">
-        <v>254</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5670,10 +5664,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>266</v>
+      </c>
+      <c r="F149" t="s">
         <v>267</v>
-      </c>
-      <c r="F149" t="s">
-        <v>268</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5699,10 +5693,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>262</v>
+      </c>
+      <c r="F150" t="s">
         <v>263</v>
-      </c>
-      <c r="F150" t="s">
-        <v>264</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5728,10 +5722,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>272</v>
+      </c>
+      <c r="F151" t="s">
         <v>273</v>
-      </c>
-      <c r="F151" t="s">
-        <v>274</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5757,10 +5751,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F152" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5815,10 +5809,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5844,10 +5838,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F155" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5873,10 +5867,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5902,10 +5896,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5931,10 +5925,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F158" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5960,10 +5954,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5989,10 +5983,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F160" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6018,10 +6012,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6047,10 +6041,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F162" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6076,10 +6070,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F163" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6105,10 +6099,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F164" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6134,10 +6128,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F165" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6163,10 +6157,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6192,10 +6186,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F167" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6221,10 +6215,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6250,10 +6244,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6279,10 +6273,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F170" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6308,10 +6302,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6337,10 +6331,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F172" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6366,10 +6360,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6395,10 +6389,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6424,10 +6418,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6453,10 +6447,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F176" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6482,10 +6476,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F177" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6511,10 +6505,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F178" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6540,10 +6534,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F179" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6569,10 +6563,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6598,10 +6592,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F181" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
